--- a/SeleniumCSharp/Resources/TestCaseData.xlsx
+++ b/SeleniumCSharp/Resources/TestCaseData.xlsx
@@ -43,7 +43,7 @@
     <t>Teacher</t>
   </si>
   <si>
-    <t>vjteacher</t>
+    <t>vj_teacher</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SeleniumCSharp/Resources/TestCaseData.xlsx
+++ b/SeleniumCSharp/Resources/TestCaseData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -28,22 +28,25 @@
     <t>DistrictAdmin</t>
   </si>
   <si>
-    <t>sn_qa</t>
-  </si>
-  <si>
-    <t>sch00lnet</t>
-  </si>
-  <si>
     <t>Leadership</t>
   </si>
   <si>
-    <t>bm_leadership</t>
-  </si>
-  <si>
     <t>Teacher</t>
   </si>
   <si>
-    <t>vj_teacher</t>
+    <t>login</t>
+  </si>
+  <si>
+    <t>passworrd</t>
+  </si>
+  <si>
+    <t>login2</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>login3</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,32 +413,32 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumCSharp/Resources/TestCaseData.xlsx
+++ b/SeleniumCSharp/Resources/TestCaseData.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>UserName</t>
   </si>
@@ -25,38 +22,88 @@
     <t>Password</t>
   </si>
   <si>
-    <t>DistrictAdmin</t>
-  </si>
-  <si>
-    <t>Leadership</t>
-  </si>
-  <si>
-    <t>Teacher</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>passworrd</t>
-  </si>
-  <si>
-    <t>login2</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>login3</t>
+    <t>sxsw@sxsw.com</t>
+  </si>
+  <si>
+    <t>Aspire@123</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>SearchProduct</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>ProductType</t>
+  </si>
+  <si>
+    <t>ProdQty</t>
+  </si>
+  <si>
+    <t>UpdatedProdQty</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>ValidCCNumber</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>CCExpMonth</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>InValidCCNumber</t>
+  </si>
+  <si>
+    <t>CCType</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Memail</t>
+  </si>
+  <si>
+    <t>Oemail</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -70,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,14 +125,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,63 +453,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:sxsw@sxsw.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>